--- a/specs/GC Review.xlsx
+++ b/specs/GC Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgroupcloud-my.sharepoint.com/personal/joshua_haines_openreach_co_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\611010337\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2BA7E17-9FE9-44F4-894D-78840E5D22E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7C5C8-1710-4B46-869D-09F4C736E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="3" activeTab="3" xr2:uid="{9D226691-C650-4FC0-B611-5980DED53651}"/>
+    <workbookView xWindow="2590" yWindow="2590" windowWidth="16920" windowHeight="10540" firstSheet="3" activeTab="3" xr2:uid="{9D226691-C650-4FC0-B611-5980DED53651}"/>
   </bookViews>
   <sheets>
     <sheet name="PRL" sheetId="2" r:id="rId1"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="264">
   <si>
     <t>Must Have</t>
   </si>
@@ -975,6 +973,24 @@
   </si>
   <si>
     <t>TIMEBOX_LENGTH</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -3321,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C226E275-FEAC-4C3D-8E1F-254DD7E90376}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3421,7 +3437,9 @@
       <c r="E3" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3447,7 +3465,9 @@
       <c r="E4" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -3473,7 +3493,9 @@
       <c r="E5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -3499,7 +3521,9 @@
       <c r="E6" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -3525,7 +3549,9 @@
       <c r="E7" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -3553,7 +3579,9 @@
       <c r="E8" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -3581,7 +3609,9 @@
       <c r="E9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -3609,7 +3639,9 @@
       <c r="E10" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -3637,7 +3669,9 @@
       <c r="E11" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -3665,7 +3699,9 @@
       <c r="E12" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -3695,7 +3731,9 @@
       <c r="E13" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -3725,7 +3763,9 @@
       <c r="E14" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
         <v>195</v>
@@ -3755,7 +3795,9 @@
       <c r="E15" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3783,7 +3825,9 @@
       <c r="E16" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -3811,7 +3855,9 @@
       <c r="E17" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -3837,7 +3883,9 @@
       <c r="E18" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
         <v>195</v>
@@ -3865,7 +3913,9 @@
       <c r="E19" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -3891,7 +3941,9 @@
       <c r="E20" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
         <v>195</v>
@@ -3927,7 +3979,9 @@
       <c r="E21" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
         <v>195</v>
@@ -3963,7 +4017,9 @@
       <c r="E22" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3989,7 +4045,9 @@
       <c r="E23" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4015,7 +4073,9 @@
       <c r="E24" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
         <v>195</v>
@@ -4043,7 +4103,9 @@
       <c r="E25" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
         <v>214</v>
@@ -4073,7 +4135,9 @@
       <c r="E26" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -4099,7 +4163,9 @@
       <c r="E27" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -4125,7 +4191,9 @@
       <c r="E28" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -4151,7 +4219,9 @@
       <c r="E29" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -4177,7 +4247,9 @@
       <c r="E30" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -4203,7 +4275,9 @@
       <c r="E31" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -4229,7 +4303,9 @@
       <c r="E32" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -4255,7 +4331,9 @@
       <c r="E33" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -4281,7 +4359,9 @@
       <c r="E34" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -4307,7 +4387,9 @@
       <c r="E35" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -4335,7 +4417,9 @@
       <c r="E36" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -4363,7 +4447,9 @@
       <c r="E37" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -4393,7 +4479,9 @@
       <c r="E38" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -4421,7 +4509,9 @@
       <c r="E39" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -4449,7 +4539,9 @@
       <c r="E40" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11" t="s">
@@ -4481,7 +4573,9 @@
       <c r="E41" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11" t="s">
@@ -4511,7 +4605,9 @@
       <c r="E42" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11" t="s">
@@ -4543,7 +4639,9 @@
       <c r="E43" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -4571,7 +4669,9 @@
       <c r="E44" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -4597,7 +4697,9 @@
       <c r="E45" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -4623,7 +4725,9 @@
       <c r="E46" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11" t="s">
@@ -4653,7 +4757,9 @@
       <c r="E47" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -4679,7 +4785,9 @@
       <c r="E48" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -4707,7 +4815,9 @@
       <c r="E49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -4733,7 +4843,9 @@
       <c r="E50" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -4759,7 +4871,9 @@
       <c r="E51" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -4787,7 +4901,9 @@
       <c r="E52" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -4815,7 +4931,9 @@
       <c r="E53" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -4845,7 +4963,9 @@
       <c r="E54" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4871,7 +4991,9 @@
       <c r="E55" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
         <v>214</v>
@@ -4907,7 +5029,9 @@
       <c r="E56" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -4933,7 +5057,9 @@
       <c r="E57" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11" t="s">
@@ -4967,7 +5093,9 @@
       <c r="E58" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11" t="s">
@@ -5001,7 +5129,9 @@
       <c r="E59" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -5031,7 +5161,9 @@
       <c r="E60" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -5057,7 +5189,9 @@
       <c r="E61" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -5083,7 +5217,9 @@
       <c r="E62" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -5109,7 +5245,9 @@
       <c r="E63" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -5135,7 +5273,9 @@
       <c r="E64" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -5161,7 +5301,9 @@
       <c r="E65" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -5187,7 +5329,9 @@
       <c r="E66" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -5217,7 +5361,9 @@
       <c r="E67" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11" t="s">
         <v>195</v>
@@ -5255,7 +5401,9 @@
       <c r="E68" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -5281,7 +5429,9 @@
       <c r="E69" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -5309,7 +5459,9 @@
       <c r="E70" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -5337,7 +5489,9 @@
       <c r="E71" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -5365,7 +5519,9 @@
       <c r="E72" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -5393,7 +5549,9 @@
       <c r="E73" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -5421,7 +5579,9 @@
       <c r="E74" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -5449,7 +5609,9 @@
       <c r="E75" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -5475,7 +5637,9 @@
       <c r="E76" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -5503,7 +5667,9 @@
       <c r="E77" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F77" s="11"/>
+      <c r="F77" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -5531,7 +5697,9 @@
       <c r="E78" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F78" s="11"/>
+      <c r="F78" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -5557,7 +5725,9 @@
       <c r="E79" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5583,7 +5753,9 @@
       <c r="E80" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -5852,15 +6024,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dce8f2-2715-4fb2-a3ea-af1544a6ee73">
@@ -5883,6 +6046,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E938FFEF-CABB-4798-BFA4-3D099C918411}">
   <ds:schemaRefs>
@@ -5903,14 +6075,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356FC8FC-E7C6-4981-9C97-7AF4029C6BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B05BBD87-DC17-4BA3-A893-76169D6548CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5925,4 +6089,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356FC8FC-E7C6-4981-9C97-7AF4029C6BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>